--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H2">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I2">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J2">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N2">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O2">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P2">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q2">
-        <v>3797.249051284869</v>
+        <v>9946.422192405509</v>
       </c>
       <c r="R2">
-        <v>34175.24146156382</v>
+        <v>89517.79973164957</v>
       </c>
       <c r="S2">
-        <v>0.1057720375096624</v>
+        <v>0.168855116985395</v>
       </c>
       <c r="T2">
-        <v>0.1057720375096624</v>
+        <v>0.168855116985395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H3">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I3">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J3">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q3">
-        <v>1504.903814705226</v>
+        <v>3038.605867477243</v>
       </c>
       <c r="R3">
-        <v>13544.13433234703</v>
+        <v>27347.45280729519</v>
       </c>
       <c r="S3">
-        <v>0.04191896306711166</v>
+        <v>0.05158479494437083</v>
       </c>
       <c r="T3">
-        <v>0.04191896306711165</v>
+        <v>0.05158479494437083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H4">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I4">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J4">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N4">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O4">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P4">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q4">
-        <v>3.117948437234</v>
+        <v>19.72805994068577</v>
       </c>
       <c r="R4">
-        <v>28.061535935106</v>
+        <v>177.552539466172</v>
       </c>
       <c r="S4">
-        <v>8.685017880107621E-05</v>
+        <v>0.0003349127761460672</v>
       </c>
       <c r="T4">
-        <v>8.685017880107622E-05</v>
+        <v>0.0003349127761460673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H5">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I5">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J5">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N5">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q5">
-        <v>827.1207848743837</v>
+        <v>884.7121632119736</v>
       </c>
       <c r="R5">
-        <v>7444.087063869454</v>
+        <v>7962.409468907763</v>
       </c>
       <c r="S5">
-        <v>0.02303937653316475</v>
+        <v>0.01501928763205161</v>
       </c>
       <c r="T5">
-        <v>0.02303937653316475</v>
+        <v>0.01501928763205161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H6">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I6">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J6">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N6">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q6">
-        <v>16.04738597889266</v>
+        <v>29.50272273038711</v>
       </c>
       <c r="R6">
-        <v>144.426473810034</v>
+        <v>265.524504573484</v>
       </c>
       <c r="S6">
-        <v>0.0004469985214999609</v>
+        <v>0.0005008520251463792</v>
       </c>
       <c r="T6">
-        <v>0.0004469985214999609</v>
+        <v>0.0005008520251463792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H7">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I7">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J7">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N7">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q7">
-        <v>7.528120342618667</v>
+        <v>58.60311088908178</v>
       </c>
       <c r="R7">
-        <v>67.753083083568</v>
+        <v>527.427998001736</v>
       </c>
       <c r="S7">
-        <v>0.0002096951283685971</v>
+        <v>0.0009948738303547523</v>
       </c>
       <c r="T7">
-        <v>0.0002096951283685971</v>
+        <v>0.0009948738303547523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>28.605264</v>
       </c>
       <c r="I8">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J8">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N8">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O8">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P8">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q8">
-        <v>5247.945348674614</v>
+        <v>6808.030332370683</v>
       </c>
       <c r="R8">
-        <v>47231.50813807153</v>
+        <v>61272.27299133614</v>
       </c>
       <c r="S8">
-        <v>0.146181054961577</v>
+        <v>0.1155763083423417</v>
       </c>
       <c r="T8">
-        <v>0.146181054961577</v>
+        <v>0.1155763083423417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>28.605264</v>
       </c>
       <c r="I9">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J9">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q9">
         <v>2079.835393444277</v>
@@ -1013,10 +1013,10 @@
         <v>18718.5185409985</v>
       </c>
       <c r="S9">
-        <v>0.05793363149959163</v>
+        <v>0.03530825877656257</v>
       </c>
       <c r="T9">
-        <v>0.05793363149959164</v>
+        <v>0.03530825877656257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>28.605264</v>
       </c>
       <c r="I10">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J10">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N10">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O10">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P10">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q10">
-        <v>4.309125574224</v>
+        <v>13.50327061097066</v>
       </c>
       <c r="R10">
-        <v>38.782130168016</v>
+        <v>121.529435498736</v>
       </c>
       <c r="S10">
-        <v>0.000120030312922573</v>
+        <v>0.0002292378399583564</v>
       </c>
       <c r="T10">
-        <v>0.0001200303129225731</v>
+        <v>0.0002292378399583564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>28.605264</v>
       </c>
       <c r="I11">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J11">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N11">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q11">
-        <v>1143.112979198683</v>
+        <v>605.5591775667147</v>
       </c>
       <c r="R11">
-        <v>10288.01681278814</v>
+        <v>5450.032598100432</v>
       </c>
       <c r="S11">
-        <v>0.03184131124416848</v>
+        <v>0.0102802559344083</v>
       </c>
       <c r="T11">
-        <v>0.03184131124416849</v>
+        <v>0.0102802559344083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>28.605264</v>
       </c>
       <c r="I12">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J12">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N12">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q12">
-        <v>22.178109328336</v>
+        <v>20.19373673775467</v>
       </c>
       <c r="R12">
-        <v>199.602983955024</v>
+        <v>181.743630639792</v>
       </c>
       <c r="S12">
-        <v>0.0006177692798359897</v>
+        <v>0.0003428183233393576</v>
       </c>
       <c r="T12">
-        <v>0.0006177692798359898</v>
+        <v>0.0003428183233393576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>28.605264</v>
       </c>
       <c r="I13">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J13">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N13">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q13">
-        <v>10.404154060672</v>
+        <v>40.11208742061867</v>
       </c>
       <c r="R13">
-        <v>93.63738654604801</v>
+        <v>361.008786785568</v>
       </c>
       <c r="S13">
-        <v>0.000289806793997181</v>
+        <v>0.0006809615641600771</v>
       </c>
       <c r="T13">
-        <v>0.000289806793997181</v>
+        <v>0.0006809615641600769</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H14">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I14">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J14">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N14">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O14">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P14">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q14">
-        <v>4368.520744470943</v>
+        <v>7742.370976499872</v>
       </c>
       <c r="R14">
-        <v>39316.68670023848</v>
+        <v>69681.33878849883</v>
       </c>
       <c r="S14">
-        <v>0.1216847601527664</v>
+        <v>0.1314381122871919</v>
       </c>
       <c r="T14">
-        <v>0.1216847601527664</v>
+        <v>0.1314381122871919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H15">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I15">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J15">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q15">
-        <v>1731.306913026611</v>
+        <v>2365.274007304966</v>
       </c>
       <c r="R15">
-        <v>15581.7622172395</v>
+        <v>21287.46606574469</v>
       </c>
       <c r="S15">
-        <v>0.04822540140827087</v>
+        <v>0.04015399823978347</v>
       </c>
       <c r="T15">
-        <v>0.04822540140827087</v>
+        <v>0.04015399823978347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H16">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I16">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J16">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N16">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O16">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P16">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q16">
-        <v>3.587023722776</v>
+        <v>15.35647248354689</v>
       </c>
       <c r="R16">
-        <v>32.283213504984</v>
+        <v>138.208252351922</v>
       </c>
       <c r="S16">
-        <v>9.991622952019243E-05</v>
+        <v>0.0002606986620447484</v>
       </c>
       <c r="T16">
-        <v>9.991622952019243E-05</v>
+        <v>0.0002606986620447484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H17">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I17">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J17">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N17">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q17">
-        <v>951.5557863354284</v>
+        <v>688.6667027103349</v>
       </c>
       <c r="R17">
-        <v>8564.002077018857</v>
+        <v>6198.000324393014</v>
       </c>
       <c r="S17">
-        <v>0.02650550252708632</v>
+        <v>0.01169112816655702</v>
       </c>
       <c r="T17">
-        <v>0.02650550252708632</v>
+        <v>0.01169112816655702</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H18">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I18">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J18">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N18">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q18">
-        <v>18.46161197133067</v>
+        <v>22.96514462958156</v>
       </c>
       <c r="R18">
-        <v>166.154507741976</v>
+        <v>206.686301666234</v>
       </c>
       <c r="S18">
-        <v>0.0005142465736503851</v>
+        <v>0.0003898670404294071</v>
       </c>
       <c r="T18">
-        <v>0.0005142465736503851</v>
+        <v>0.0003898670404294071</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H19">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I19">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J19">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N19">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q19">
-        <v>8.660677621994667</v>
+        <v>45.6171089566929</v>
       </c>
       <c r="R19">
-        <v>77.946098597952</v>
+        <v>410.553980610236</v>
       </c>
       <c r="S19">
-        <v>0.0002412424115249298</v>
+        <v>0.0007744173855096556</v>
       </c>
       <c r="T19">
-        <v>0.0002412424115249298</v>
+        <v>0.0007744173855096556</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H20">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I20">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J20">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N20">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O20">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P20">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q20">
-        <v>2881.99821706671</v>
+        <v>6079.098955391351</v>
       </c>
       <c r="R20">
-        <v>25937.98395360039</v>
+        <v>54711.89059852215</v>
       </c>
       <c r="S20">
-        <v>0.08027780622269527</v>
+        <v>0.1032016282258924</v>
       </c>
       <c r="T20">
-        <v>0.08027780622269529</v>
+        <v>0.1032016282258924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H21">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I21">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J21">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q21">
-        <v>1142.176889706458</v>
+        <v>1857.148771437737</v>
       </c>
       <c r="R21">
-        <v>10279.59200735812</v>
+        <v>16714.33894293963</v>
       </c>
       <c r="S21">
-        <v>0.03181523655390015</v>
+        <v>0.03152782648818583</v>
       </c>
       <c r="T21">
-        <v>0.03181523655390015</v>
+        <v>0.03152782648818583</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H22">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I22">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J22">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N22">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O22">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P22">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q22">
-        <v>2.366429411306</v>
+        <v>12.05748421466478</v>
       </c>
       <c r="R22">
-        <v>21.297864701754</v>
+        <v>108.517357931983</v>
       </c>
       <c r="S22">
-        <v>6.591668259734827E-05</v>
+        <v>0.0002046934936233973</v>
       </c>
       <c r="T22">
-        <v>6.591668259734828E-05</v>
+        <v>0.0002046934936233973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H23">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I23">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J23">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N23">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q23">
-        <v>627.7598848830319</v>
+        <v>540.7223505262467</v>
       </c>
       <c r="R23">
-        <v>5649.838963947287</v>
+        <v>4866.50115473622</v>
       </c>
       <c r="S23">
-        <v>0.01748619624210372</v>
+        <v>0.009179555621964368</v>
       </c>
       <c r="T23">
-        <v>0.01748619624210372</v>
+        <v>0.00917955562196437</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H24">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I24">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J24">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N24">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q24">
-        <v>12.17948497850067</v>
+        <v>18.03160648745011</v>
       </c>
       <c r="R24">
-        <v>109.615364806506</v>
+        <v>162.284458387051</v>
       </c>
       <c r="S24">
-        <v>0.0003392584801774957</v>
+        <v>0.0003061129885676649</v>
       </c>
       <c r="T24">
-        <v>0.0003392584801774958</v>
+        <v>0.0003061129885676649</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H25">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I25">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J25">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N25">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q25">
-        <v>5.713617703834668</v>
+        <v>35.81731232568378</v>
       </c>
       <c r="R25">
-        <v>51.42255933451201</v>
+        <v>322.3558109311539</v>
       </c>
       <c r="S25">
-        <v>0.0001591523173549498</v>
+        <v>0.0006080514526593901</v>
       </c>
       <c r="T25">
-        <v>0.0001591523173549498</v>
+        <v>0.0006080514526593901</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H26">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I26">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J26">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N26">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O26">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P26">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q26">
-        <v>3414.070752960456</v>
+        <v>4579.05298284258</v>
       </c>
       <c r="R26">
-        <v>30726.6367766441</v>
+        <v>41211.47684558322</v>
       </c>
       <c r="S26">
-        <v>0.09509863979571878</v>
+        <v>0.07773614593703576</v>
       </c>
       <c r="T26">
-        <v>0.0950986397957188</v>
+        <v>0.07773614593703576</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H27">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I27">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J27">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>654.373214</v>
       </c>
       <c r="O27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q27">
-        <v>1353.044804386809</v>
+        <v>1398.888664888816</v>
       </c>
       <c r="R27">
-        <v>12177.40323948128</v>
+        <v>12589.99798399935</v>
       </c>
       <c r="S27">
-        <v>0.03768894372451816</v>
+        <v>0.02374818850336953</v>
       </c>
       <c r="T27">
-        <v>0.03768894372451816</v>
+        <v>0.02374818850336953</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H28">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I28">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J28">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N28">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O28">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P28">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q28">
-        <v>2.803317987583001</v>
+        <v>9.082243843024221</v>
       </c>
       <c r="R28">
-        <v>25.229861888247</v>
+        <v>81.74019458721799</v>
       </c>
       <c r="S28">
-        <v>7.808617536787846E-05</v>
+        <v>0.0001541844209845316</v>
       </c>
       <c r="T28">
-        <v>7.808617536787847E-05</v>
+        <v>0.0001541844209845316</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H29">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I29">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J29">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N29">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q29">
-        <v>743.656484646386</v>
+        <v>407.2965928397961</v>
       </c>
       <c r="R29">
-        <v>6692.908361817474</v>
+        <v>3665.669335558166</v>
       </c>
       <c r="S29">
-        <v>0.02071448580959045</v>
+        <v>0.006914457530691625</v>
       </c>
       <c r="T29">
-        <v>0.02071448580959045</v>
+        <v>0.006914457530691627</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H30">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I30">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J30">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N30">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q30">
-        <v>14.42805314902033</v>
+        <v>13.58222362848289</v>
       </c>
       <c r="R30">
-        <v>129.852478341183</v>
+        <v>122.240012656346</v>
       </c>
       <c r="S30">
-        <v>0.00040189214830489</v>
+        <v>0.0002305781833250954</v>
       </c>
       <c r="T30">
-        <v>0.0004018921483048901</v>
+        <v>0.0002305781833250954</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H31">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I31">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J31">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N31">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q31">
-        <v>6.768461888957335</v>
+        <v>26.97922373789822</v>
       </c>
       <c r="R31">
-        <v>60.91615700061601</v>
+        <v>242.813013641084</v>
       </c>
       <c r="S31">
-        <v>0.0001885349091230329</v>
+        <v>0.0004580119255259764</v>
       </c>
       <c r="T31">
-        <v>0.0001885349091230329</v>
+        <v>0.0004580119255259764</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H32">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I32">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J32">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N32">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O32">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P32">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q32">
-        <v>2434.977202596392</v>
+        <v>6761.788751192922</v>
       </c>
       <c r="R32">
-        <v>21914.79482336752</v>
+        <v>60856.0987607363</v>
       </c>
       <c r="S32">
-        <v>0.0678260752796951</v>
+        <v>0.1147912896242219</v>
       </c>
       <c r="T32">
-        <v>0.0678260752796951</v>
+        <v>0.1147912896242219</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H33">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I33">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J33">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>654.373214</v>
       </c>
       <c r="O33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q33">
-        <v>965.0161028199217</v>
+        <v>2065.708711792311</v>
       </c>
       <c r="R33">
-        <v>8685.144925379294</v>
+        <v>18591.3784061308</v>
       </c>
       <c r="S33">
-        <v>0.02688043845592881</v>
+        <v>0.03506843761908349</v>
       </c>
       <c r="T33">
-        <v>0.02688043845592881</v>
+        <v>0.03506843761908349</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H34">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I34">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J34">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N34">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O34">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P34">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q34">
-        <v>1.999377249424</v>
+        <v>13.41155354250322</v>
       </c>
       <c r="R34">
-        <v>17.994395244816</v>
+        <v>120.703981882529</v>
       </c>
       <c r="S34">
-        <v>5.569247699212234E-05</v>
+        <v>0.0002276808080904097</v>
       </c>
       <c r="T34">
-        <v>5.569247699212234E-05</v>
+        <v>0.0002276808080904097</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H35">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I35">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J35">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N35">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q35">
-        <v>530.3892970310382</v>
+        <v>601.4460916225692</v>
       </c>
       <c r="R35">
-        <v>4773.503673279344</v>
+        <v>5413.014824603123</v>
       </c>
       <c r="S35">
-        <v>0.01477394710291859</v>
+        <v>0.01021043026294224</v>
       </c>
       <c r="T35">
-        <v>0.01477394710291859</v>
+        <v>0.01021043026294224</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H36">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I36">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J36">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N36">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q36">
-        <v>10.29034927446933</v>
+        <v>20.05657660904589</v>
       </c>
       <c r="R36">
-        <v>92.61314347022399</v>
+        <v>180.509189481413</v>
       </c>
       <c r="S36">
-        <v>0.0002866367717119863</v>
+        <v>0.0003404898288183291</v>
       </c>
       <c r="T36">
-        <v>0.0002866367717119863</v>
+        <v>0.0003404898288183291</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H37">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I37">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J37">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N37">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q37">
-        <v>4.827389819605334</v>
+        <v>39.83963764350023</v>
       </c>
       <c r="R37">
-        <v>43.446508376448</v>
+        <v>358.556738791502</v>
       </c>
       <c r="S37">
-        <v>0.0001344665177808882</v>
+        <v>0.0006763363292667597</v>
       </c>
       <c r="T37">
-        <v>0.0001344665177808882</v>
+        <v>0.0006763363292667597</v>
       </c>
     </row>
   </sheetData>
